--- a/DataBases/StudentDataBase.xlsx
+++ b/DataBases/StudentDataBase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,27 +456,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Interest</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FavoriteFood</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>BestFriend</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Points</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>GradeLevel</t>
         </is>
       </c>
     </row>
@@ -493,69 +503,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Sports, Mario Bros</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Starwars, Robotics, Music</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Pizza</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Hans</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Trini</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>17</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bob Esponja, Mario Bros</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Yogufrut</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Alfredo</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
+      <c r="J2" t="n">
+        <v>735</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>9th Grade</t>
+        </is>
       </c>
     </row>
   </sheetData>
